--- a/SurveyResult.xlsx
+++ b/SurveyResult.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="75" windowWidth="5295" windowHeight="7095"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="26">
   <si>
     <t>Q1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,19 +34,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Q5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Q6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Q7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500-600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -66,15 +58,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0-100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Work</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400-500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -82,31 +66,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>700-800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300-400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Both</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600-700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200-300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800-900</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -157,12 +117,16 @@
     <t>Others</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Q5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,11 +172,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -220,6 +184,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -298,6 +267,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -332,6 +302,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,104 +478,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
+      <c r="F3">
+        <v>550</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2">
         <v>5</v>
       </c>
       <c r="I3">
@@ -629,18 +600,18 @@
         <v>5</v>
       </c>
       <c r="Q3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -648,11 +619,11 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>14</v>
+      <c r="F4">
+        <v>450</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -679,18 +650,18 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -698,11 +669,11 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>17</v>
+      <c r="F5">
+        <v>350</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -729,18 +700,18 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -748,11 +719,11 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
-        <v>14</v>
+      <c r="F6">
+        <v>450</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -779,18 +750,18 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -798,11 +769,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
+      <c r="F7">
+        <v>750</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>19</v>
@@ -829,15 +800,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -845,11 +816,11 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
-        <v>17</v>
+      <c r="F8">
+        <v>350</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -876,15 +847,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -892,11 +863,11 @@
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
+      <c r="F9">
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -923,15 +894,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -939,11 +910,11 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
-        <v>16</v>
+      <c r="F10">
+        <v>750</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -970,15 +941,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
         <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -986,11 +957,11 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>19</v>
+      <c r="F11">
+        <v>850</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>20</v>
@@ -1017,15 +988,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
         <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
       </c>
       <c r="D12">
         <v>30</v>
@@ -1033,11 +1004,11 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
         <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1064,15 +1035,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1080,11 +1051,11 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
-        <v>19</v>
+      <c r="F13">
+        <v>850</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H13">
         <v>15</v>
@@ -1111,15 +1082,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -1127,11 +1098,11 @@
       <c r="E14">
         <v>2</v>
       </c>
-      <c r="F14" t="s">
-        <v>14</v>
+      <c r="F14">
+        <v>450</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H14">
         <v>50</v>
@@ -1158,15 +1129,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -1174,11 +1145,11 @@
       <c r="E15">
         <v>3</v>
       </c>
-      <c r="F15" t="s">
-        <v>17</v>
+      <c r="F15">
+        <v>350</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H15">
         <v>13</v>
@@ -1205,15 +1176,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -1221,11 +1192,11 @@
       <c r="E16">
         <v>2</v>
       </c>
-      <c r="F16" t="s">
-        <v>20</v>
+      <c r="F16">
+        <v>650</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H16">
         <v>40</v>
@@ -1252,15 +1223,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -1268,11 +1239,11 @@
       <c r="E17">
         <v>5</v>
       </c>
-      <c r="F17" t="s">
-        <v>16</v>
+      <c r="F17">
+        <v>750</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H17">
         <v>20</v>
@@ -1299,15 +1270,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -1315,11 +1286,11 @@
       <c r="E18">
         <v>3</v>
       </c>
-      <c r="F18" t="s">
-        <v>17</v>
+      <c r="F18">
+        <v>350</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H18">
         <v>10</v>
@@ -1346,15 +1317,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>14</v>
@@ -1362,11 +1333,11 @@
       <c r="E19">
         <v>4</v>
       </c>
-      <c r="F19" t="s">
-        <v>20</v>
+      <c r="F19">
+        <v>650</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H19">
         <v>10</v>
@@ -1393,15 +1364,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>13</v>
@@ -1409,11 +1380,11 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" t="s">
-        <v>17</v>
+      <c r="F20">
+        <v>350</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1440,15 +1411,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>6</v>
@@ -1456,11 +1427,11 @@
       <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21" t="s">
-        <v>7</v>
+      <c r="F21">
+        <v>550</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1487,15 +1458,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D22">
         <v>37</v>
@@ -1503,11 +1474,11 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
         <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>18</v>
       </c>
       <c r="H22">
         <v>20</v>
@@ -1534,15 +1505,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D23">
         <v>6</v>
@@ -1550,11 +1521,11 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" t="s">
-        <v>7</v>
+      <c r="F23">
+        <v>550</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H23">
         <v>33</v>
@@ -1581,15 +1552,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -1597,11 +1568,11 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" t="s">
-        <v>19</v>
+      <c r="F24">
+        <v>850</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H24">
         <v>32</v>
@@ -1628,15 +1599,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <v>25</v>
@@ -1644,11 +1615,11 @@
       <c r="E25">
         <v>3</v>
       </c>
-      <c r="F25" t="s">
-        <v>19</v>
+      <c r="F25">
+        <v>850</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1675,15 +1646,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1691,11 +1662,11 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" t="s">
-        <v>21</v>
+      <c r="F26">
+        <v>250</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1722,15 +1693,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
         <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>15</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -1738,11 +1709,11 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27" t="s">
-        <v>16</v>
+      <c r="F27">
+        <v>750</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H27">
         <v>5</v>
@@ -1769,15 +1740,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D28">
         <v>6</v>
@@ -1785,11 +1756,11 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28" t="s">
-        <v>17</v>
+      <c r="F28">
+        <v>350</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -1816,15 +1787,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1832,11 +1803,11 @@
       <c r="E29">
         <v>3</v>
       </c>
-      <c r="F29" t="s">
-        <v>22</v>
+      <c r="F29">
+        <v>850</v>
       </c>
       <c r="G29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H29">
         <v>11</v>
@@ -1863,15 +1834,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1879,11 +1850,11 @@
       <c r="E30">
         <v>3</v>
       </c>
-      <c r="F30" t="s">
-        <v>14</v>
+      <c r="F30">
+        <v>450</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H30">
         <v>20</v>
@@ -1910,15 +1881,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -1926,11 +1897,11 @@
       <c r="E31">
         <v>4</v>
       </c>
-      <c r="F31" t="s">
-        <v>7</v>
+      <c r="F31">
+        <v>550</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H31">
         <v>30</v>
@@ -1957,15 +1928,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D32">
         <v>4</v>
@@ -1973,11 +1944,11 @@
       <c r="E32">
         <v>2</v>
       </c>
-      <c r="F32" t="s">
-        <v>17</v>
+      <c r="F32">
+        <v>350</v>
       </c>
       <c r="G32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -2004,15 +1975,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -2020,11 +1991,11 @@
       <c r="E33">
         <v>2</v>
       </c>
-      <c r="F33" t="s">
-        <v>19</v>
+      <c r="F33">
+        <v>850</v>
       </c>
       <c r="G33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H33">
         <v>35</v>
@@ -2051,15 +2022,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D34">
         <v>8</v>
@@ -2067,11 +2038,11 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="F34" t="s">
-        <v>19</v>
+      <c r="F34">
+        <v>850</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H34">
         <v>10</v>
@@ -2098,15 +2069,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -2114,11 +2085,11 @@
       <c r="E35">
         <v>3</v>
       </c>
-      <c r="F35" t="s">
-        <v>17</v>
+      <c r="F35">
+        <v>350</v>
       </c>
       <c r="G35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H35">
         <v>38</v>
@@ -2145,15 +2116,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
         <v>11</v>
-      </c>
-      <c r="C36" t="s">
-        <v>15</v>
       </c>
       <c r="D36">
         <v>19</v>
@@ -2161,11 +2132,11 @@
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="F36" t="s">
-        <v>16</v>
+      <c r="F36">
+        <v>750</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2192,15 +2163,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -2208,11 +2179,11 @@
       <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37" t="s">
-        <v>7</v>
+      <c r="F37">
+        <v>550</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H37">
         <v>10</v>
@@ -2239,15 +2210,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -2255,11 +2226,11 @@
       <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38" t="s">
-        <v>14</v>
+      <c r="F38">
+        <v>450</v>
       </c>
       <c r="G38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H38">
         <v>40</v>
@@ -2286,15 +2257,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2302,11 +2273,11 @@
       <c r="E39">
         <v>1</v>
       </c>
-      <c r="F39" t="s">
-        <v>14</v>
+      <c r="F39">
+        <v>450</v>
       </c>
       <c r="G39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H39">
         <v>15</v>
@@ -2333,15 +2304,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -2349,11 +2320,11 @@
       <c r="E40">
         <v>3</v>
       </c>
-      <c r="F40" t="s">
-        <v>17</v>
+      <c r="F40">
+        <v>350</v>
       </c>
       <c r="G40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H40">
         <v>20</v>
@@ -2380,15 +2351,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -2396,11 +2367,11 @@
       <c r="E41">
         <v>3</v>
       </c>
-      <c r="F41" t="s">
-        <v>17</v>
+      <c r="F41">
+        <v>350</v>
       </c>
       <c r="G41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H41">
         <v>45</v>
@@ -2427,15 +2398,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -2443,11 +2414,11 @@
       <c r="E42">
         <v>6</v>
       </c>
-      <c r="F42" t="s">
-        <v>20</v>
+      <c r="F42">
+        <v>650</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H42">
         <v>40</v>
@@ -2474,15 +2445,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
         <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>15</v>
       </c>
       <c r="D43">
         <v>10</v>
@@ -2490,11 +2461,11 @@
       <c r="E43">
         <v>1</v>
       </c>
-      <c r="F43" t="s">
-        <v>12</v>
+      <c r="F43">
+        <v>50</v>
       </c>
       <c r="G43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H43">
         <v>10</v>
@@ -2521,15 +2492,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D44">
         <v>8</v>
@@ -2537,11 +2508,11 @@
       <c r="E44">
         <v>3</v>
       </c>
-      <c r="F44" t="s">
-        <v>17</v>
+      <c r="F44">
+        <v>350</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H44">
         <v>10</v>
@@ -2568,15 +2539,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D45">
         <v>12</v>
@@ -2584,11 +2555,11 @@
       <c r="E45">
         <v>4</v>
       </c>
-      <c r="F45" t="s">
-        <v>19</v>
+      <c r="F45">
+        <v>850</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H45">
         <v>25</v>
@@ -2615,15 +2586,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
         <v>11</v>
-      </c>
-      <c r="C46" t="s">
-        <v>15</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -2631,11 +2602,11 @@
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="F46" t="s">
-        <v>17</v>
+      <c r="F46">
+        <v>350</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H46">
         <v>20</v>
@@ -2662,15 +2633,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
         <v>11</v>
-      </c>
-      <c r="C47" t="s">
-        <v>15</v>
       </c>
       <c r="D47">
         <v>4</v>
@@ -2678,11 +2649,11 @@
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="F47" t="s">
-        <v>17</v>
+      <c r="F47">
+        <v>350</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H47">
         <v>15</v>
@@ -2709,15 +2680,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D48">
         <v>15</v>
@@ -2725,11 +2696,11 @@
       <c r="E48">
         <v>7</v>
       </c>
-      <c r="F48" t="s">
-        <v>19</v>
+      <c r="F48">
+        <v>850</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H48">
         <v>10</v>
@@ -2756,15 +2727,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -2772,11 +2743,11 @@
       <c r="E49">
         <v>3</v>
       </c>
-      <c r="F49" t="s">
-        <v>14</v>
+      <c r="F49">
+        <v>450</v>
       </c>
       <c r="G49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H49">
         <v>25</v>
@@ -2803,15 +2774,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -2819,11 +2790,11 @@
       <c r="E50">
         <v>1</v>
       </c>
-      <c r="F50" t="s">
-        <v>14</v>
+      <c r="F50">
+        <v>450</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H50">
         <v>30</v>
@@ -2850,15 +2821,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -2866,11 +2837,11 @@
       <c r="E51">
         <v>1</v>
       </c>
-      <c r="F51" t="s">
-        <v>21</v>
+      <c r="F51">
+        <v>250</v>
       </c>
       <c r="G51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H51">
         <v>60</v>
@@ -2897,15 +2868,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D52">
         <v>7</v>
@@ -2913,11 +2884,11 @@
       <c r="E52">
         <v>4</v>
       </c>
-      <c r="F52" t="s">
-        <v>17</v>
+      <c r="F52">
+        <v>350</v>
       </c>
       <c r="G52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H52">
         <v>10</v>
@@ -2944,15 +2915,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D53">
         <v>5</v>
@@ -2960,11 +2931,11 @@
       <c r="E53">
         <v>1</v>
       </c>
-      <c r="F53" t="s">
-        <v>14</v>
+      <c r="F53">
+        <v>450</v>
       </c>
       <c r="G53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H53">
         <v>10</v>
@@ -2991,15 +2962,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D54">
         <v>11</v>
@@ -3007,11 +2978,11 @@
       <c r="E54">
         <v>3</v>
       </c>
-      <c r="F54" t="s">
-        <v>16</v>
+      <c r="F54">
+        <v>750</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H54">
         <v>10</v>
@@ -3038,15 +3009,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -3054,11 +3025,11 @@
       <c r="E55">
         <v>1</v>
       </c>
-      <c r="F55" t="s">
-        <v>21</v>
+      <c r="F55">
+        <v>250</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -3085,15 +3056,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -3101,11 +3072,11 @@
       <c r="E56">
         <v>2</v>
       </c>
-      <c r="F56" t="s">
-        <v>19</v>
+      <c r="F56">
+        <v>850</v>
       </c>
       <c r="G56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H56">
         <v>19</v>
@@ -3132,15 +3103,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D57">
         <v>10</v>
@@ -3148,11 +3119,11 @@
       <c r="E57">
         <v>1</v>
       </c>
-      <c r="F57" t="s">
-        <v>19</v>
+      <c r="F57">
+        <v>850</v>
       </c>
       <c r="G57" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H57">
         <v>25</v>
@@ -3179,15 +3150,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D58">
         <v>9</v>
@@ -3195,11 +3166,11 @@
       <c r="E58">
         <v>4</v>
       </c>
-      <c r="F58" t="s">
-        <v>14</v>
+      <c r="F58">
+        <v>450</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H58">
         <v>22</v>
@@ -3226,15 +3197,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D59">
         <v>10</v>
@@ -3242,11 +3213,11 @@
       <c r="E59">
         <v>4</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59">
+        <v>50</v>
+      </c>
+      <c r="G59" t="s">
         <v>12</v>
-      </c>
-      <c r="G59" t="s">
-        <v>18</v>
       </c>
       <c r="H59">
         <v>20</v>
@@ -3290,12 +3261,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3303,12 +3274,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
